--- a/temp/Subjects.xlsx
+++ b/temp/Subjects.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>Course Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Subject</t>
-  </si>
-  <si>
-    <t>Pre-Requisite Code (Optional)</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Credit Hour</t>
-  </si>
-  <si>
-    <t>Type (Lab/Theory)</t>
-  </si>
-  <si>
-    <t>Category (Computing/ Social Science/ English)</t>
   </si>
   <si>
     <t>Cloud Computing</t>
@@ -232,59 +217,700 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -474,375 +1100,358 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="2" width="40.29"/>
-    <col customWidth="1" min="3" max="3" width="28.14"/>
-    <col customWidth="1" min="6" max="6" width="17.43"/>
-    <col customWidth="1" min="7" max="7" width="43.43"/>
+    <col min="1" max="1" width="40.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
+    <row r="14" customHeight="1" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
+    <row r="15" customHeight="1" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
+    <row r="16" customHeight="1" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
+    <row r="18" customHeight="1" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
+    <row r="19" customHeight="1" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
+    <row r="20" customHeight="1" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
+    <row r="21" customHeight="1" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
+    <row r="22" customHeight="1" spans="1:1">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
+    <row r="23" customHeight="1" spans="1:1">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="2" t="s">
+    <row r="24" customHeight="1" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
+    <row r="25" customHeight="1" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
+    <row r="26" customHeight="1" spans="1:1">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="2" t="s">
+    <row r="27" customHeight="1" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="2" t="s">
+    <row r="28" customHeight="1" spans="1:1">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="2" t="s">
+    <row r="29" customHeight="1" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="2" t="s">
+    <row r="30" customHeight="1" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="2" t="s">
+    <row r="31" customHeight="1" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="2" t="s">
+    <row r="32" customHeight="1" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="2" t="s">
+    <row r="33" customHeight="1" spans="1:1">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="2" t="s">
+    <row r="34" customHeight="1" spans="1:1">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="2" t="s">
+    <row r="35" customHeight="1" spans="1:1">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="2" t="s">
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="2" t="s">
+    <row r="37" customHeight="1" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="2" t="s">
+    <row r="38" customHeight="1" spans="1:1">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="2" t="s">
+    <row r="39" customHeight="1" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="2" t="s">
+    <row r="40" customHeight="1" spans="1:1">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="2" t="s">
+    <row r="41" customHeight="1" spans="1:1">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="2" t="s">
+    <row r="42" customHeight="1" spans="1:1">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="2" t="s">
+    <row r="43" customHeight="1" spans="1:1">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="2" t="s">
+    <row r="44" customHeight="1" spans="1:1">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="2" t="s">
+    <row r="45" customHeight="1" spans="1:1">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="2" t="s">
+    <row r="46" customHeight="1" spans="1:1">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="2" t="s">
+    <row r="47" customHeight="1" spans="1:1">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="2" t="s">
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="2" t="s">
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" s="2" t="s">
+    <row r="50" customHeight="1" spans="1:1">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="2" t="s">
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="2" t="s">
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="2" t="s">
+    <row r="53" customHeight="1" spans="1:1">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="2" t="s">
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="2" t="s">
+    <row r="55" customHeight="1" spans="1:1">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" s="2" t="s">
+    <row r="56" customHeight="1" spans="1:1">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="2" t="s">
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="2" t="s">
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="2" t="s">
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" s="2" t="s">
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="2" t="s">
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56">
-      <c r="B56" s="2" t="s">
+    <row r="62" customHeight="1" spans="1:1">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="2" t="s">
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" s="2" t="s">
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" s="2" t="s">
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" s="2" t="s">
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/temp/Subjects.xlsx
+++ b/temp/Subjects.xlsx
@@ -14,72 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>Subject</t>
   </si>
   <si>
+    <t>Class</t>
+  </si>
+  <si>
     <t>Cloud Computing</t>
   </si>
   <si>
+    <t>CSF18A</t>
+  </si>
+  <si>
     <t>Information Systems</t>
   </si>
   <si>
     <t>Information Systems </t>
   </si>
   <si>
+    <t>CSF18M</t>
+  </si>
+  <si>
     <t>Management Information Systems</t>
   </si>
   <si>
+    <t>ITF18A</t>
+  </si>
+  <si>
     <t>Introduction to Parallel Programming</t>
   </si>
   <si>
+    <t>ITF18M</t>
+  </si>
+  <si>
     <t>Probability &amp; Statistics</t>
   </si>
   <si>
+    <t>SEF18A</t>
+  </si>
+  <si>
     <t>Analysis of Algorithms</t>
   </si>
   <si>
+    <t>SEF18M</t>
+  </si>
+  <si>
     <t>Intro to Sociology</t>
   </si>
   <si>
+    <t>CSF19A</t>
+  </si>
+  <si>
     <t>Web Engineering</t>
   </si>
   <si>
     <t>AI</t>
   </si>
   <si>
+    <t>CSF19M</t>
+  </si>
+  <si>
     <t>OOP</t>
   </si>
   <si>
+    <t>ITF19A</t>
+  </si>
+  <si>
     <t>Object Oriented Programming</t>
   </si>
   <si>
+    <t>ITF19M</t>
+  </si>
+  <si>
     <t>Cloud Computing and Big Data</t>
   </si>
   <si>
+    <t>SEF19A</t>
+  </si>
+  <si>
     <t>Professional Ethics</t>
   </si>
   <si>
+    <t>SEF19M</t>
+  </si>
+  <si>
     <t>Software Project Management</t>
   </si>
   <si>
+    <t>CSF20A</t>
+  </si>
+  <si>
     <t>Software Design &amp; Architecture</t>
   </si>
   <si>
     <t>Operating Systems</t>
   </si>
   <si>
+    <t>CSF20M</t>
+  </si>
+  <si>
     <t>OS</t>
   </si>
   <si>
+    <t>ITF20A</t>
+  </si>
+  <si>
     <t>Sociology</t>
   </si>
   <si>
+    <t>ITF20M</t>
+  </si>
+  <si>
     <t>Arabic Language</t>
   </si>
   <si>
+    <t>SEF20A</t>
+  </si>
+  <si>
     <t>TBW</t>
+  </si>
+  <si>
+    <t>SEF20M</t>
   </si>
   <si>
     <t>Computer Organization &amp; Assembly Language</t>
@@ -219,12 +276,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -239,6 +296,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -252,8 +316,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,135 +459,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -405,187 +469,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,17 +660,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -630,6 +683,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,164 +752,167 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,345 +1174,543 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="2" t="s">
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="2" t="s">
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="2" t="s">
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="2" t="s">
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:1">
-      <c r="A23" s="2" t="s">
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:1">
-      <c r="A25" s="2" t="s">
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="2" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="2" t="s">
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="2" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="2" t="s">
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="2" t="s">
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="2" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="2" t="s">
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:1">
-      <c r="A35" s="2" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:1">
-      <c r="A36" s="2" t="s">
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="2" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="2" t="s">
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="2" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="2" t="s">
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:1">
-      <c r="A41" s="2" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="2" t="s">
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="2" t="s">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="2" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="2" t="s">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="2" t="s">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="2" t="s">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="2" t="s">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="2" t="s">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="2" t="s">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="2" t="s">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="2" t="s">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:1">
-      <c r="A53" s="2" t="s">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="2" t="s">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:1">
-      <c r="A55" s="2" t="s">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="2" t="s">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="2" t="s">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="2" t="s">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:1">
-      <c r="A59" s="2" t="s">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="2" t="s">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="2" t="s">
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
+      <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:1">
-      <c r="A62" s="2" t="s">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="2" t="s">
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="2" t="s">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:1">
-      <c r="A65" s="2" t="s">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="2" t="s">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
